--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
@@ -5,28 +5,37 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang3\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang3\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="43" r:id="rId1"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId2"/>
+    <sheet name="TG102LE-4G" sheetId="43" r:id="rId1"/>
+    <sheet name="TOP-1" sheetId="45" r:id="rId2"/>
+    <sheet name="TG102LE" sheetId="44" r:id="rId3"/>
+    <sheet name="TG102V" sheetId="46" r:id="rId4"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -222,37 +231,64 @@
     <t>Khách hàng</t>
   </si>
   <si>
-    <t>Thể</t>
+    <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 03 NĂM 2023</t>
   </si>
   <si>
-    <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 03 NĂM 2023</t>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Lắp Đặt</t>
+  </si>
+  <si>
+    <t>TOP-1</t>
+  </si>
+  <si>
+    <t>TG102V</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Le4.1.04.BOO01.221222</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW module + FW  thiết bị</t>
   </si>
   <si>
     <t>BT</t>
   </si>
   <si>
-    <t>Lắp đặt</t>
+    <t>Tùng</t>
   </si>
   <si>
-    <t>TG102V</t>
+    <t>125.212.203.114,16767</t>
   </si>
   <si>
-    <t>H</t>
+    <t>LE.2.00.---28.200624</t>
   </si>
   <si>
-    <t>125.212.203.114,16363</t>
-  </si>
-  <si>
-    <t>W.2.00.---21.200630</t>
-  </si>
-  <si>
-    <t>Thiết bị treo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restore thiết bị </t>
+    <t>Chuyển về LE, Hết hạn dịch vụ</t>
   </si>
   <si>
     <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị treo khởi động</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
   </si>
 </sst>
 </file>
@@ -262,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +368,18 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -458,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -635,6 +683,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,22 +722,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1039,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1118,7 @@
     <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="76" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
@@ -1072,43 +1141,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="81"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1153,424 +1222,400 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="83" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="65" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="66">
-        <v>44987</v>
-      </c>
-      <c r="C6" s="66">
-        <v>44987</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="38">
-        <v>868926033942829</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
+      <c r="B6" s="67">
+        <v>44994</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="75">
+        <v>862205051219766</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="39" t="s">
+      <c r="K6" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67" t="s">
+      <c r="L6" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="69" t="s">
+      <c r="P6" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="70"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="85" t="s">
+      <c r="R6" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="71"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="65"/>
+      <c r="W6" s="66"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="66">
-        <v>44987</v>
-      </c>
-      <c r="C7" s="66">
-        <v>44987</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="38">
-        <v>868926033935542</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="86"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="65"/>
+      <c r="W7" s="66"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="86"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="65"/>
+      <c r="W8" s="66"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="86"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="65"/>
+      <c r="W9" s="66"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="86"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="65"/>
+      <c r="W10" s="66"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="86"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="66"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="85" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="65"/>
+      <c r="W12" s="66"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="86"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="65"/>
+      <c r="W13" s="66"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="86"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="65"/>
+      <c r="W14" s="66"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="50"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="49"/>
       <c r="G15" s="37"/>
       <c r="H15" s="1"/>
@@ -1586,20 +1631,20 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="65"/>
+      <c r="W15" s="66"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="50"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="49"/>
       <c r="G16" s="37"/>
       <c r="H16" s="1"/>
@@ -1615,20 +1660,20 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="65"/>
+      <c r="W16" s="66"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="50"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="1"/>
@@ -1644,18 +1689,18 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="65"/>
+      <c r="U17" s="66"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="65"/>
+      <c r="W17" s="66"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="8"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="50"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="49"/>
       <c r="G18" s="37"/>
       <c r="H18" s="1"/>
@@ -1679,7 +1724,7 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="8"/>
       <c r="D19" s="37"/>
       <c r="E19" s="50"/>
@@ -1698,7 +1743,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="65" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1710,10 +1755,10 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="8"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="50"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="1"/>
@@ -1734,7 +1779,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1742,10 +1787,10 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="50"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="1"/>
@@ -1774,10 +1819,10 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="8"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="50"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="9"/>
@@ -1806,10 +1851,10 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="8"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="50"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="9"/>
@@ -1833,10 +1878,10 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="8"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="50"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="9"/>
@@ -1860,10 +1905,10 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="8"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="50"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="9"/>
@@ -1879,7 +1924,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="64" t="s">
+      <c r="U25" s="65" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -1891,10 +1936,10 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="8"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="50"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="9"/>
@@ -1923,10 +1968,10 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="8"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="50"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="9"/>
@@ -1955,10 +2000,10 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="8"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="50"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="1"/>
@@ -1987,10 +2032,10 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="50"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="1"/>
@@ -2019,10 +2064,10 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="73"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
@@ -2051,10 +2096,10 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="73"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
@@ -2083,10 +2128,10 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="73"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
@@ -2115,10 +2160,10 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="73"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
@@ -2147,10 +2192,10 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="73"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
@@ -2171,7 +2216,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -2179,10 +2224,10 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="73"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
@@ -2203,7 +2248,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2211,10 +2256,10 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="73"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
@@ -2235,7 +2280,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2243,10 +2288,10 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="73"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
@@ -2267,7 +2312,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2275,10 +2320,10 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="73"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
@@ -2302,10 +2347,10 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="73"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
@@ -2329,10 +2374,10 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="73"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
@@ -2361,10 +2406,10 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="73"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
@@ -2393,10 +2438,10 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="73"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
@@ -2420,10 +2465,10 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="73"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
@@ -2447,10 +2492,10 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="73"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="1"/>
@@ -2483,10 +2528,10 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="73"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="1"/>
@@ -2522,10 +2567,10 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="73"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="1"/>
@@ -2561,10 +2606,10 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="73"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="1"/>
@@ -2600,10 +2645,10 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="73"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="1"/>
@@ -2639,10 +2684,10 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="73"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="1"/>
@@ -2667,10 +2712,10 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="29"/>
       <c r="D50" s="43"/>
-      <c r="E50" s="74"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
       <c r="H50" s="31"/>
@@ -2695,10 +2740,10 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="73"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="1"/>
@@ -2723,10 +2768,10 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="61"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
-      <c r="E52" s="75"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -2751,10 +2796,10 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="61"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="75"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
@@ -2779,10 +2824,10 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="61"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
-      <c r="E54" s="75"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -2807,10 +2852,10 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="61"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
-      <c r="E55" s="75"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -2868,6 +2913,5418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="84"/>
+      <c r="L4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44994</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="75">
+        <v>868183038065368</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="71"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="84"/>
+      <c r="L4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44994</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="75">
+        <v>867857039908277</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="71"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="84"/>
+      <c r="L4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44994</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="75">
+        <v>863586032000000</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67">
+        <v>44994</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="75">
+        <v>869627031755531</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -2904,43 +8361,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="81"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2985,58 +8442,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3061,31 +8518,31 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="37"/>
       <c r="E6" s="38"/>
       <c r="F6" s="49"/>
@@ -3103,7 +8560,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3115,8 +8572,8 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
       <c r="F7" s="37"/>
@@ -3134,7 +8591,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3144,8 +8601,8 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="49"/>
@@ -3163,7 +8620,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3173,8 +8630,8 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="49"/>
@@ -3192,7 +8649,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3202,8 +8659,8 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="37"/>
@@ -3221,7 +8678,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3250,7 +8707,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3279,7 +8736,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3310,7 +8767,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3339,7 +8796,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3368,7 +8825,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3397,7 +8854,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang3\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang3\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="43" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -290,6 +290,51 @@
   <si>
     <t>Nạp lại FW</t>
   </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>LE.2.00.---25.200220</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16464</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Thay connector</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Thay baudrate gps 115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận SIM</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay SIM+FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
 </sst>
 </file>
 
@@ -298,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +425,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -506,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -724,9 +774,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,6 +804,168 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,6 +1007,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,7 +1351,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,43 +1383,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1222,58 +1464,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="90" t="s">
+      <c r="K4" s="137"/>
+      <c r="L4" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="90" t="s">
+      <c r="M4" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="150" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="137" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1304,17 +1546,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="150"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,19 +1566,21 @@
       <c r="B6" s="67">
         <v>44994</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="136">
+        <v>44998</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="74">
         <v>862205051219766</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77" t="s">
+      <c r="H6" s="75"/>
+      <c r="I6" s="76" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="68" t="s">
@@ -1366,7 +1610,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="145" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1381,11 +1625,11 @@
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
       <c r="D7" s="64"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="64"/>
-      <c r="I7" s="77"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
       <c r="L7" s="68"/>
@@ -1397,7 +1641,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="71"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="146"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1410,11 +1654,11 @@
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
       <c r="D8" s="64"/>
-      <c r="E8" s="75"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="64"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="76"/>
       <c r="J8" s="68"/>
       <c r="K8" s="68"/>
       <c r="L8" s="68"/>
@@ -1426,7 +1670,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="71"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="146"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1436,14 +1680,14 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="67"/>
       <c r="D9" s="64"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="78"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="77"/>
       <c r="G9" s="64"/>
       <c r="H9" s="69"/>
-      <c r="I9" s="82"/>
+      <c r="I9" s="81"/>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
@@ -1455,7 +1699,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="71"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="146"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1465,17 +1709,17 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="67"/>
       <c r="D10" s="64"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="78"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="64"/>
       <c r="H10" s="69"/>
-      <c r="I10" s="82"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="68"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="68"/>
       <c r="N10" s="69"/>
       <c r="O10" s="68"/>
@@ -1484,7 +1728,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="71"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="146"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1494,14 +1738,14 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="67"/>
       <c r="D11" s="64"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="78"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
-      <c r="I11" s="77"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="68"/>
       <c r="K11" s="68"/>
       <c r="L11" s="68"/>
@@ -1513,7 +1757,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="71"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="146"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1523,14 +1767,14 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="81"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="67"/>
       <c r="D12" s="64"/>
-      <c r="E12" s="75"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
       <c r="H12" s="69"/>
-      <c r="I12" s="77"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="69"/>
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
@@ -1542,7 +1786,7 @@
       <c r="R12" s="64"/>
       <c r="S12" s="71"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="145" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1554,14 +1798,14 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="67"/>
       <c r="D13" s="64"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="78"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="64"/>
       <c r="H13" s="69"/>
-      <c r="I13" s="82"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="69"/>
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
@@ -1573,7 +1817,7 @@
       <c r="R13" s="64"/>
       <c r="S13" s="71"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="146"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1583,14 +1827,14 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="81"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="67"/>
       <c r="D14" s="64"/>
-      <c r="E14" s="75"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="64"/>
       <c r="G14" s="64"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="82"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="81"/>
       <c r="J14" s="69"/>
       <c r="K14" s="68"/>
       <c r="L14" s="68"/>
@@ -1602,7 +1846,7 @@
       <c r="R14" s="64"/>
       <c r="S14" s="71"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="146"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1631,7 +1875,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="146"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +1904,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="147"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2917,7 +3161,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2949,43 +3193,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3030,99 +3274,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="90" t="s">
+      <c r="K4" s="137"/>
+      <c r="L4" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="90" t="s">
+      <c r="M4" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="150" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="137" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="142"/>
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="150"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3132,11 +3376,13 @@
       <c r="B6" s="67">
         <v>44994</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="136">
+        <v>44998</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="74">
         <v>868183038065368</v>
       </c>
       <c r="F6" s="64"/>
@@ -3174,7 +3420,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="145" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3205,7 +3451,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="146"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3234,7 +3480,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="146"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3263,7 +3509,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="146"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3292,7 +3538,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="146"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3321,7 +3567,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="146"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3350,7 +3596,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="145" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3381,7 +3627,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="146"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3410,7 +3656,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="146"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3439,7 +3685,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="146"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3468,7 +3714,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="147"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3551,7 +3797,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="74" t="s">
+      <c r="U19" s="73" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -3732,7 +3978,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="74" t="s">
+      <c r="U25" s="73" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -4724,8 +4970,1870 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="85" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="85" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="85" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="85" customWidth="1"/>
+    <col min="7" max="7" width="17" style="85" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="85" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="133" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="85" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="134" customWidth="1"/>
+    <col min="12" max="12" width="56" style="134" customWidth="1"/>
+    <col min="13" max="13" width="58" style="85" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="85" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="85" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="85" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="85" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="85" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="85" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="85"/>
+    <col min="21" max="21" width="30.5703125" style="85" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="85" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="85" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="84"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="141"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="90"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="90"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="151"/>
+      <c r="L4" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="155" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="160" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="155" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="155" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="151" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="90"/>
+      <c r="U4" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="84"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="154"/>
+      <c r="B5" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="84"/>
+    </row>
+    <row r="6" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95">
+        <v>1</v>
+      </c>
+      <c r="B6" s="96">
+        <v>44994</v>
+      </c>
+      <c r="C6" s="135">
+        <v>44998</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="50">
+        <v>867857039908277</v>
+      </c>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="100"/>
+      <c r="O6" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="95"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="83"/>
+    </row>
+    <row r="7" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="95">
+        <v>2</v>
+      </c>
+      <c r="B7" s="96">
+        <v>45006</v>
+      </c>
+      <c r="C7" s="96">
+        <v>45007</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="50">
+        <v>868183037867863</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="100"/>
+      <c r="O7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="95"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="158"/>
+      <c r="V7" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="83"/>
+    </row>
+    <row r="8" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95">
+        <v>3</v>
+      </c>
+      <c r="B8" s="96">
+        <v>45006</v>
+      </c>
+      <c r="C8" s="96">
+        <v>45007</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="50">
+        <v>860157040200500</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="103"/>
+      <c r="I8" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="100"/>
+      <c r="O8" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="95"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="158"/>
+      <c r="V8" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="83"/>
+    </row>
+    <row r="9" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="95">
+        <v>4</v>
+      </c>
+      <c r="B9" s="104"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="83"/>
+    </row>
+    <row r="10" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="95">
+        <v>5</v>
+      </c>
+      <c r="B10" s="104"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="83"/>
+    </row>
+    <row r="11" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="95">
+        <v>6</v>
+      </c>
+      <c r="B11" s="104"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="83"/>
+    </row>
+    <row r="12" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95">
+        <v>7</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="157" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="83"/>
+    </row>
+    <row r="13" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="95">
+        <v>8</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="158"/>
+      <c r="V13" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="83"/>
+    </row>
+    <row r="14" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="95">
+        <v>9</v>
+      </c>
+      <c r="B14" s="104"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="158"/>
+      <c r="V14" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="83"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="95">
+        <v>10</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="158"/>
+      <c r="V15" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="83"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="95">
+        <v>11</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="83"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="95">
+        <v>12</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="83"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="95">
+        <v>13</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="108"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="95">
+        <v>14</v>
+      </c>
+      <c r="B19" s="104"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="115"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="95">
+        <v>15</v>
+      </c>
+      <c r="B20" s="116"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="111">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="108"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="95">
+        <v>16</v>
+      </c>
+      <c r="B21" s="116"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="111">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="108"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="95">
+        <v>17</v>
+      </c>
+      <c r="B22" s="116"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="111">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="108"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="95">
+        <v>18</v>
+      </c>
+      <c r="B23" s="116"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="108"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="95">
+        <v>19</v>
+      </c>
+      <c r="B24" s="116"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="108"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="95">
+        <v>20</v>
+      </c>
+      <c r="B25" s="116"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="115"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="95">
+        <v>21</v>
+      </c>
+      <c r="B26" s="116"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="111">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="108"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="95">
+        <v>22</v>
+      </c>
+      <c r="B27" s="116"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="111">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="108"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="95">
+        <v>23</v>
+      </c>
+      <c r="B28" s="116"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="111">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="108"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="95">
+        <v>24</v>
+      </c>
+      <c r="B29" s="116"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="111">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="108"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="95">
+        <v>25</v>
+      </c>
+      <c r="B30" s="116"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="111">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="108"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="95">
+        <v>26</v>
+      </c>
+      <c r="B31" s="116"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="111">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="108"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="95">
+        <v>27</v>
+      </c>
+      <c r="B32" s="116"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="111">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>1</v>
+      </c>
+      <c r="W32" s="108"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="95">
+        <v>28</v>
+      </c>
+      <c r="B33" s="116"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="111">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="108"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="95">
+        <v>29</v>
+      </c>
+      <c r="B34" s="116"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="111">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="108"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="95">
+        <v>30</v>
+      </c>
+      <c r="B35" s="116"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="111">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="108"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="95">
+        <v>31</v>
+      </c>
+      <c r="B36" s="116"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="111">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="108"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="95">
+        <v>32</v>
+      </c>
+      <c r="B37" s="116"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="111">
+        <f>SUM(V26:V36)</f>
+        <v>3</v>
+      </c>
+      <c r="W37" s="108"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="95">
+        <v>33</v>
+      </c>
+      <c r="B38" s="116"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="108"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="112"/>
+      <c r="W38" s="108"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="95">
+        <v>34</v>
+      </c>
+      <c r="B39" s="116"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="108"/>
+      <c r="U39" s="108"/>
+      <c r="V39" s="112"/>
+      <c r="W39" s="108"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="95">
+        <v>35</v>
+      </c>
+      <c r="B40" s="116"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="111">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="108"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="95">
+        <v>36</v>
+      </c>
+      <c r="B41" s="116"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="108"/>
+      <c r="U41" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="111">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="108"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="95">
+        <v>37</v>
+      </c>
+      <c r="B42" s="116"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="108"/>
+      <c r="U42" s="108"/>
+      <c r="V42" s="112"/>
+      <c r="W42" s="108"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="95">
+        <v>38</v>
+      </c>
+      <c r="B43" s="116"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="108"/>
+      <c r="U43" s="108"/>
+      <c r="V43" s="112"/>
+      <c r="W43" s="108"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="95">
+        <v>39</v>
+      </c>
+      <c r="B44" s="116"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="95">
+        <v>40</v>
+      </c>
+      <c r="B45" s="116"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="100"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="108"/>
+      <c r="U45" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="111">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="111">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="111">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="95">
+        <v>41</v>
+      </c>
+      <c r="B46" s="116"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="111">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="111">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="111">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="95">
+        <v>42</v>
+      </c>
+      <c r="B47" s="116"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100"/>
+      <c r="O47" s="100"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="111">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="111">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="111">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="95">
+        <v>43</v>
+      </c>
+      <c r="B48" s="116"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="119"/>
+      <c r="U48" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="111">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="111">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="111">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="95">
+        <v>44</v>
+      </c>
+      <c r="B49" s="116"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100"/>
+      <c r="O49" s="100"/>
+      <c r="P49" s="100"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="119"/>
+      <c r="U49" s="120"/>
+      <c r="V49" s="120"/>
+      <c r="W49" s="120"/>
+      <c r="X49" s="121"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="122">
+        <v>45</v>
+      </c>
+      <c r="B50" s="123"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="127"/>
+      <c r="P50" s="127"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="125"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="119"/>
+      <c r="U50" s="120"/>
+      <c r="V50" s="120"/>
+      <c r="W50" s="120"/>
+      <c r="X50" s="121"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="95">
+        <v>46</v>
+      </c>
+      <c r="B51" s="116"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="119"/>
+      <c r="U51" s="120"/>
+      <c r="V51" s="120"/>
+      <c r="W51" s="120"/>
+      <c r="X51" s="121"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="95">
+        <v>47</v>
+      </c>
+      <c r="B52" s="129"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="131"/>
+      <c r="M52" s="121"/>
+      <c r="N52" s="121"/>
+      <c r="O52" s="121"/>
+      <c r="P52" s="121"/>
+      <c r="Q52" s="121"/>
+      <c r="R52" s="121"/>
+      <c r="S52" s="121"/>
+      <c r="T52" s="119"/>
+      <c r="U52" s="120"/>
+      <c r="V52" s="120"/>
+      <c r="W52" s="120"/>
+      <c r="X52" s="121"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="95">
+        <v>48</v>
+      </c>
+      <c r="B53" s="129"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="121"/>
+      <c r="N53" s="121"/>
+      <c r="O53" s="121"/>
+      <c r="P53" s="121"/>
+      <c r="Q53" s="121"/>
+      <c r="R53" s="121"/>
+      <c r="S53" s="121"/>
+      <c r="T53" s="119"/>
+      <c r="U53" s="120"/>
+      <c r="V53" s="120"/>
+      <c r="W53" s="120"/>
+      <c r="X53" s="121"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="95">
+        <v>49</v>
+      </c>
+      <c r="B54" s="129"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="131"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="121"/>
+      <c r="P54" s="121"/>
+      <c r="Q54" s="121"/>
+      <c r="R54" s="121"/>
+      <c r="S54" s="121"/>
+      <c r="T54" s="119"/>
+      <c r="U54" s="120"/>
+      <c r="V54" s="120"/>
+      <c r="W54" s="120"/>
+      <c r="X54" s="121"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="95">
+        <v>50</v>
+      </c>
+      <c r="B55" s="129"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="121"/>
+      <c r="N55" s="121"/>
+      <c r="O55" s="121"/>
+      <c r="P55" s="121"/>
+      <c r="Q55" s="121"/>
+      <c r="R55" s="121"/>
+      <c r="S55" s="121"/>
+      <c r="T55" s="132"/>
+      <c r="U55" s="120"/>
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="121"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="72"/>
+      <c r="V56" s="72"/>
+      <c r="W56" s="72"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="72"/>
+      <c r="V57" s="72"/>
+      <c r="W57" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4757,43 +6865,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4838,99 +6946,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="90" t="s">
+      <c r="K4" s="137"/>
+      <c r="L4" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="90" t="s">
+      <c r="M4" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="150" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="137" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="142"/>
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="150"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4940,47 +7048,33 @@
       <c r="B6" s="67">
         <v>44994</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="136">
+        <v>44998</v>
+      </c>
       <c r="D6" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="75">
-        <v>867857039908277</v>
+        <v>67</v>
+      </c>
+      <c r="E6" s="74">
+        <v>863586032000000</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="72"/>
-      <c r="I6" s="54" t="s">
-        <v>80</v>
-      </c>
+      <c r="I6" s="54"/>
       <c r="J6" s="39"/>
-      <c r="K6" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="68" t="s">
-        <v>82</v>
-      </c>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="69"/>
-      <c r="O6" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="64" t="s">
-        <v>24</v>
-      </c>
+      <c r="O6" s="68"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="64"/>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="145" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4992,12 +7086,22 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="67">
+        <v>44994</v>
+      </c>
+      <c r="C7" s="136">
+        <v>44998</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="74">
+        <v>869627031755531</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="64"/>
       <c r="I7" s="54"/>
       <c r="J7" s="39"/>
@@ -5011,7 +7115,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="146"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5021,26 +7125,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C8" s="67">
+        <v>45007</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="74">
+        <v>868926033939163</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="68"/>
+      <c r="L8" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>94</v>
+      </c>
       <c r="N8" s="69"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="3"/>
+      <c r="O8" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="146"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5069,7 +7201,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="146"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5098,7 +7230,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="146"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5127,7 +7259,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="146"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5156,7 +7288,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="145" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5187,7 +7319,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="146"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5216,7 +7348,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="146"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5245,7 +7377,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="146"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5274,7 +7406,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="147"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5357,7 +7489,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="74" t="s">
+      <c r="U19" s="73" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -5393,7 +7525,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5457,7 +7589,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5538,7 +7670,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="74" t="s">
+      <c r="U25" s="73" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -5734,7 +7866,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5926,1805 +8058,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="56" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="45"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="46"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="74" t="s">
         <v>2</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="46"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="67">
-        <v>44994</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="75">
-        <v>863586032000000</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="66"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="67">
-        <v>44994</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="75">
-        <v>869627031755531</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="66"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="66"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="66"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="66"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="66"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="66"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="66"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="66"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="66"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="66"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="66"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="47"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="47"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>0</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8361,43 +8695,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8442,58 +8776,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="137"/>
+      <c r="M4" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="150" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="137" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8518,23 +8852,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="137"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="150"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8560,7 +8894,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="145" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8591,7 +8925,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="146"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8620,7 +8954,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="146"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8649,7 +8983,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="146"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8678,7 +9012,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="146"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8707,7 +9041,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="146"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8736,7 +9070,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="145" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8767,7 +9101,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="146"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8796,7 +9130,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="146"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8825,7 +9159,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="146"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8854,7 +9188,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="147"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
@@ -9,33 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE-4G" sheetId="43" r:id="rId1"/>
-    <sheet name="TOP-1" sheetId="45" r:id="rId2"/>
-    <sheet name="TG102LE" sheetId="44" r:id="rId3"/>
-    <sheet name="TG102V" sheetId="46" r:id="rId4"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
+    <sheet name="TG102E" sheetId="47" r:id="rId1"/>
+    <sheet name="TG102LE-4G" sheetId="43" r:id="rId2"/>
+    <sheet name="TOP-1" sheetId="45" r:id="rId3"/>
+    <sheet name="TG102LE" sheetId="44" r:id="rId4"/>
+    <sheet name="TG102V" sheetId="46" r:id="rId5"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -290,6 +293,72 @@
   <si>
     <t>Nạp lại FW</t>
   </si>
+  <si>
+    <t>ID cũ: 202205251052582, ID mới: 202303211045582</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>ID mới: 202303211115554</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>ID mới: 202303211315277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID cũ: 202106011350185, ID mới: </t>
+  </si>
+  <si>
+    <t>ID cũ: 202205261458885, ID mới: 202303211335885</t>
+  </si>
+  <si>
+    <t>ID cũ: 202110211401803, ID mới: 202303211355803</t>
+  </si>
+  <si>
+    <t>21/03/23</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200401.CAR01A10</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A10</t>
+  </si>
+  <si>
+    <t>ID mới: 202303211415330</t>
+  </si>
+  <si>
+    <t>Thiết bị mất ID</t>
+  </si>
+  <si>
+    <t>Gán lại ID, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>ID mới: 202303211515201</t>
+  </si>
+  <si>
+    <t>ID mới: 202303211523136</t>
+  </si>
+  <si>
+    <t>ID mới: 202303211620418</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị, gán lại ID làm mới</t>
+  </si>
+  <si>
+    <t>ID mới: 202303220835478</t>
+  </si>
+  <si>
+    <t>ID mới: 202303220905414</t>
+  </si>
+  <si>
+    <t>ID cũ: 202112091540778, ID mới: 202303220930778</t>
+  </si>
 </sst>
 </file>
 
@@ -506,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -757,6 +826,33 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,32 +871,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,8 +1189,1814 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="32" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98"/>
+      <c r="B5" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="75">
+        <v>862549040721899</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="71"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>1</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,43 +3028,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1222,23 +3109,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +3138,7 @@
       <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="90" t="s">
@@ -1260,20 +3147,20 @@
       <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="93" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1308,13 +3195,13 @@
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,7 +3211,9 @@
       <c r="B6" s="67">
         <v>44994</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="73" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>56</v>
       </c>
@@ -1366,7 +3255,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1397,7 +3286,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="71"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1426,7 +3315,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="71"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1455,7 +3344,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="71"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1484,7 +3373,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="71"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1513,7 +3402,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="71"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +3431,7 @@
       <c r="R12" s="64"/>
       <c r="S12" s="71"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1573,7 +3462,7 @@
       <c r="R13" s="64"/>
       <c r="S13" s="71"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1602,7 +3491,7 @@
       <c r="R14" s="64"/>
       <c r="S14" s="71"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1631,7 +3520,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +3549,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2912,12 +4801,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2949,43 +4838,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3030,23 +4919,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
@@ -3059,7 +4948,7 @@
       <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="90" t="s">
@@ -3068,20 +4957,20 @@
       <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="93" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -3116,13 +5005,13 @@
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3132,7 +5021,9 @@
       <c r="B6" s="67">
         <v>44994</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="73" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>66</v>
       </c>
@@ -3174,7 +5065,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3205,7 +5096,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3234,7 +5125,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3263,7 +5154,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3292,7 +5183,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3321,7 +5212,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3350,7 +5241,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3381,7 +5272,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3410,7 +5301,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3439,7 +5330,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3468,7 +5359,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4720,12 +6611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4757,43 +6648,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4838,23 +6729,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
@@ -4867,7 +6758,7 @@
       <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="90" t="s">
@@ -4876,20 +6767,20 @@
       <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="93" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -4924,13 +6815,13 @@
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4940,7 +6831,9 @@
       <c r="B6" s="67">
         <v>44994</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="73" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>44</v>
       </c>
@@ -4951,11 +6844,11 @@
       <c r="G6" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="54" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="68" t="s">
         <v>76</v>
       </c>
@@ -4980,7 +6873,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4992,26 +6885,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="39"/>
+      <c r="B7" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="75">
+        <v>868183034703582</v>
+      </c>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>76</v>
+      </c>
       <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="L7" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>101</v>
+      </c>
       <c r="N7" s="69"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
+      <c r="O7" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="71"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5021,26 +6940,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="68"/>
+      <c r="B8" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="75">
+        <v>867717030427554</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>101</v>
+      </c>
       <c r="N8" s="69"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="3"/>
+      <c r="O8" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="71"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5050,26 +6997,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
+      <c r="B9" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="75">
+        <v>860157040239185</v>
+      </c>
+      <c r="F9" s="78"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="69"/>
+      <c r="O9" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="71"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5079,26 +7052,52 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
+      <c r="B10" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="75">
+        <v>867857039908277</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="83"/>
+      <c r="L10" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="69"/>
+      <c r="O10" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="71"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5108,26 +7107,54 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
+      <c r="B11" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="75">
+        <v>868183034540885</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="69"/>
+      <c r="O11" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="71"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5137,26 +7164,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
+      <c r="B12" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="75">
+        <v>868183038024803</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="71"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5168,26 +7221,52 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
+      <c r="B13" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="75">
+        <v>868183037799330</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="69"/>
+      <c r="O13" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="71"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5197,26 +7276,52 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
+      <c r="B14" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="75">
+        <v>867717030628201</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="69"/>
+      <c r="O14" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="71"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5226,26 +7331,52 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
+      <c r="B15" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="75">
+        <v>868183034770136</v>
+      </c>
+      <c r="F15" s="78"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="69"/>
+      <c r="O15" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="71"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5255,26 +7386,52 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="75">
+        <v>868183034595418</v>
+      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="69"/>
+      <c r="O16" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="71"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5284,24 +7441,50 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="3"/>
+      <c r="B17" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="75">
+        <v>868183037804478</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="69"/>
+      <c r="O17" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="71"/>
       <c r="T17" s="13"/>
       <c r="U17" s="66"/>
       <c r="V17" s="14"/>
@@ -5311,24 +7494,50 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="3"/>
+      <c r="B18" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="75">
+        <v>868183035865414</v>
+      </c>
+      <c r="F18" s="78"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="69"/>
+      <c r="O18" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="71"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -5338,24 +7547,50 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="3"/>
+      <c r="B19" s="67">
+        <v>45006</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="75">
+        <v>867717030427778</v>
+      </c>
+      <c r="F19" s="78"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="101"/>
+      <c r="O19" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="71"/>
       <c r="T19" s="13"/>
       <c r="U19" s="74" t="s">
         <v>39</v>
@@ -5369,31 +7604,31 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="3"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="71"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5401,24 +7636,24 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="3"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="71"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>49</v>
@@ -5894,7 +8129,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -5926,7 +8161,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6526,12 +8761,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6563,43 +8798,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6644,23 +8879,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
@@ -6673,7 +8908,7 @@
       <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="90" t="s">
@@ -6682,20 +8917,20 @@
       <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="93" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
@@ -6730,13 +8965,13 @@
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6746,7 +8981,9 @@
       <c r="B6" s="67">
         <v>44994</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="73" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>67</v>
       </c>
@@ -6770,7 +9007,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6785,7 +9022,9 @@
       <c r="B7" s="67">
         <v>44994</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="73" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" s="64" t="s">
         <v>67</v>
       </c>
@@ -6809,7 +9048,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6838,7 +9077,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6867,7 +9106,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6896,7 +9135,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6925,7 +9164,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6954,7 +9193,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6985,7 +9224,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7014,7 +9253,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7043,7 +9282,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7072,7 +9311,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8324,7 +10563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -8361,43 +10600,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8442,58 +10681,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="93" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8518,7 +10757,7 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
@@ -8527,14 +10766,14 @@
       </c>
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="97"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8560,7 +10799,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8591,7 +10830,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8620,7 +10859,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8649,7 +10888,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8678,7 +10917,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8707,7 +10946,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8736,7 +10975,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8767,7 +11006,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8796,7 +11035,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8825,7 +11064,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8854,7 +11093,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
@@ -9,33 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE-4G" sheetId="43" r:id="rId1"/>
-    <sheet name="TOP-1" sheetId="45" r:id="rId2"/>
-    <sheet name="TG102LE" sheetId="44" r:id="rId3"/>
-    <sheet name="TG102V" sheetId="46" r:id="rId4"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
+    <sheet name="TG102E" sheetId="47" r:id="rId1"/>
+    <sheet name="TG102LE-4G" sheetId="43" r:id="rId2"/>
+    <sheet name="TOP-1" sheetId="45" r:id="rId3"/>
+    <sheet name="TG102LE" sheetId="44" r:id="rId4"/>
+    <sheet name="TG102V" sheetId="46" r:id="rId5"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -335,6 +338,66 @@
   <si>
     <t>CS</t>
   </si>
+  <si>
+    <t>TG102LE-4G(STM)</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>LE.2.00.---26.200319</t>
+  </si>
+  <si>
+    <t>Thay MCU, Nâng cấp FW module</t>
+  </si>
+  <si>
+    <t>MCU, NCFW</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, làm mới thiết bị</t>
+  </si>
+  <si>
+    <t>ID mới : 202303230858122</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>203.162.69.75,21575</t>
+  </si>
+  <si>
+    <t>112.078.011.007,13368</t>
+  </si>
+  <si>
+    <t>ID mới : 202303230909289</t>
+  </si>
+  <si>
+    <t>ID mới : 202303230909207</t>
+  </si>
+  <si>
+    <t>ID mới : 202303230910885</t>
+  </si>
+  <si>
+    <t>ID mới : 202303230916649</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>ID mới : 202303230945375</t>
+  </si>
+  <si>
+    <t>ID mới : 202303230954058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm mới thiết bị </t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -789,9 +852,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,6 +1026,36 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -984,28 +1074,25 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,27 +1106,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1350,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1383,43 +1449,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1464,23 +1530,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="137" t="s">
+      <c r="A4" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137" t="s">
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="137"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="143" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1559,7 @@
       <c r="O4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="148" t="s">
+      <c r="P4" s="141" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="143" t="s">
@@ -1502,61 +1568,61 @@
       <c r="R4" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="150" t="s">
+      <c r="S4" s="145" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="137" t="s">
+      <c r="U4" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="137" t="s">
+      <c r="V4" s="146" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="142"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="151"/>
+      <c r="B5" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="136" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="136" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="144"/>
       <c r="M5" s="144"/>
       <c r="N5" s="144"/>
       <c r="O5" s="144"/>
-      <c r="P5" s="149"/>
+      <c r="P5" s="142"/>
       <c r="Q5" s="144"/>
       <c r="R5" s="144"/>
-      <c r="S5" s="150"/>
+      <c r="S5" s="145"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1564,43 +1630,39 @@
         <v>1</v>
       </c>
       <c r="B6" s="67">
-        <v>44994</v>
-      </c>
-      <c r="C6" s="136">
-        <v>44998</v>
+        <v>45007</v>
+      </c>
+      <c r="C6" s="67">
+        <v>45008</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="74">
-        <v>862205051219766</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>71</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E6" s="38">
+        <v>860906041173375</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
       <c r="M6" s="68" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="N6" s="69"/>
       <c r="O6" s="68" t="s">
         <v>73</v>
       </c>
       <c r="P6" s="69" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="70" t="s">
         <v>19</v>
@@ -1610,7 +1672,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="145" t="s">
+      <c r="U6" s="138" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1622,26 +1684,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="68"/>
+      <c r="B7" s="67">
+        <v>45007</v>
+      </c>
+      <c r="C7" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="38">
+        <v>860906041274058</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="K7" s="68"/>
       <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="M7" s="68" t="s">
+        <v>116</v>
+      </c>
       <c r="N7" s="69"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="71"/>
+      <c r="O7" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="146"/>
+      <c r="U7" s="139"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1653,24 +1741,24 @@
       </c>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="68"/>
       <c r="N8" s="69"/>
       <c r="O8" s="68"/>
       <c r="P8" s="69"/>
       <c r="Q8" s="70"/>
       <c r="R8" s="64"/>
-      <c r="S8" s="71"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="146"/>
+      <c r="U8" s="139"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1680,26 +1768,26 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="71"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="146"/>
+      <c r="U9" s="139"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1709,26 +1797,26 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="71"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="146"/>
+      <c r="U10" s="139"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1738,26 +1826,26 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="71"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="146"/>
+      <c r="U11" s="139"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1767,26 +1855,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="71"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="145" t="s">
+      <c r="U12" s="138" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1798,26 +1886,26 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="71"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="146"/>
+      <c r="U13" s="139"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1827,26 +1915,26 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="71"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="146"/>
+      <c r="U14" s="139"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1875,7 +1963,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="146"/>
+      <c r="U15" s="139"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1904,7 +1992,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="147"/>
+      <c r="U16" s="140"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1987,7 +2075,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="136" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -2023,7 +2111,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2168,7 +2256,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="65" t="s">
+      <c r="U25" s="136" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2492,7 +2580,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2556,7 +2644,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3157,6 +3245,1864 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="147" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="148" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="150"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="146"/>
+      <c r="L4" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="143" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="143" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="141" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="143" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="151"/>
+      <c r="B5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44994</v>
+      </c>
+      <c r="C6" s="135">
+        <v>44998</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="74">
+        <v>862205051219766</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="71"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="138" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67">
+        <v>45007</v>
+      </c>
+      <c r="C7" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862205051183830</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="69"/>
+      <c r="O7" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="71"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67">
+        <v>45007</v>
+      </c>
+      <c r="C8" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="38">
+        <v>862205051178681</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="78"/>
+      <c r="I8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" s="69"/>
+      <c r="O8" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" s="71"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>2</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>3</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>5</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -3193,43 +5139,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3274,23 +5220,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="137" t="s">
+      <c r="A4" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137" t="s">
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="137"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="143" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +5249,7 @@
       <c r="O4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="148" t="s">
+      <c r="P4" s="141" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="143" t="s">
@@ -3312,20 +5258,20 @@
       <c r="R4" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="150" t="s">
+      <c r="S4" s="145" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="137" t="s">
+      <c r="U4" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="137" t="s">
+      <c r="V4" s="146" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="142"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -3360,13 +5306,13 @@
       <c r="M5" s="144"/>
       <c r="N5" s="144"/>
       <c r="O5" s="144"/>
-      <c r="P5" s="149"/>
+      <c r="P5" s="142"/>
       <c r="Q5" s="144"/>
       <c r="R5" s="144"/>
-      <c r="S5" s="150"/>
+      <c r="S5" s="145"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3376,7 +5322,7 @@
       <c r="B6" s="67">
         <v>44994</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="135">
         <v>44998</v>
       </c>
       <c r="D6" s="64" t="s">
@@ -3420,7 +5366,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="145" t="s">
+      <c r="U6" s="138" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3451,7 +5397,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="146"/>
+      <c r="U7" s="139"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3480,7 +5426,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="146"/>
+      <c r="U8" s="139"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3509,7 +5455,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="146"/>
+      <c r="U9" s="139"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3538,7 +5484,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="146"/>
+      <c r="U10" s="139"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3567,7 +5513,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="146"/>
+      <c r="U11" s="139"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3596,7 +5542,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="145" t="s">
+      <c r="U12" s="138" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3627,7 +5573,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="146"/>
+      <c r="U13" s="139"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3656,7 +5602,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="146"/>
+      <c r="U14" s="139"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3685,7 +5631,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="146"/>
+      <c r="U15" s="139"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3714,7 +5660,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="147"/>
+      <c r="U16" s="140"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4942,13 +6888,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4960,103 +6899,110 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="85" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="85" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="85" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="85" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="85" customWidth="1"/>
-    <col min="7" max="7" width="17" style="85" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="85" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="133" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="85" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="134" customWidth="1"/>
-    <col min="12" max="12" width="56" style="134" customWidth="1"/>
-    <col min="13" max="13" width="58" style="85" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="85" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="85" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="85" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="85" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="85" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="85" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="85"/>
-    <col min="21" max="21" width="30.5703125" style="85" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="85" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="85" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="9.42578125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="84" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="84" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="84" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="84" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="84" customWidth="1"/>
+    <col min="7" max="7" width="17" style="84" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="84" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="132" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="84" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="133" customWidth="1"/>
+    <col min="12" max="12" width="56" style="133" customWidth="1"/>
+    <col min="13" max="13" width="58" style="84" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="84" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="84" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="84" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="84" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="84" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="84" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="84"/>
+    <col min="21" max="21" width="30.5703125" style="84" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="84" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="84" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="84"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="141" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="90"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="89"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -5075,1722 +7021,1860 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="90"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="89"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="151" t="s">
+      <c r="A4" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151" t="s">
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="151"/>
-      <c r="L4" s="155" t="s">
+      <c r="K4" s="159"/>
+      <c r="L4" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="155" t="s">
+      <c r="M4" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="155" t="s">
+      <c r="N4" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="155" t="s">
+      <c r="O4" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="160" t="s">
+      <c r="P4" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="155" t="s">
+      <c r="Q4" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="155" t="s">
+      <c r="R4" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="90"/>
-      <c r="U4" s="151" t="s">
+      <c r="T4" s="89"/>
+      <c r="U4" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="151" t="s">
+      <c r="V4" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="84"/>
+      <c r="W4" s="83"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="154"/>
-      <c r="B5" s="93" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="151"/>
-      <c r="W5" s="84"/>
-    </row>
-    <row r="6" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95">
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="83"/>
+    </row>
+    <row r="6" spans="1:23" s="101" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94">
         <v>1</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="95">
         <v>44994</v>
       </c>
-      <c r="C6" s="135">
+      <c r="C6" s="134">
         <v>44998</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="50">
         <v>867857039908277</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97" t="s">
+      <c r="F6" s="96"/>
+      <c r="G6" s="96" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="72"/>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99" t="s">
+      <c r="J6" s="98"/>
+      <c r="K6" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="99" t="s">
+      <c r="L6" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="99" t="s">
+      <c r="M6" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="100"/>
-      <c r="O6" s="99" t="s">
+      <c r="N6" s="99"/>
+      <c r="O6" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="100" t="s">
+      <c r="P6" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="101" t="s">
+      <c r="Q6" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="97" t="s">
+      <c r="R6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="95"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="157" t="s">
+      <c r="S6" s="94"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="95" t="s">
+      <c r="V6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="83"/>
-    </row>
-    <row r="7" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95">
+      <c r="W6" s="82"/>
+    </row>
+    <row r="7" spans="1:23" s="101" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="94">
         <v>2</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="95">
         <v>45006</v>
       </c>
-      <c r="C7" s="96">
+      <c r="C7" s="95">
         <v>45007</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="50">
         <v>868183037867863</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99" t="s">
+      <c r="J7" s="98"/>
+      <c r="K7" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="99" t="s">
+      <c r="L7" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="99" t="s">
+      <c r="M7" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="99" t="s">
+      <c r="N7" s="99"/>
+      <c r="O7" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="100" t="s">
+      <c r="P7" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="Q7" s="101" t="s">
+      <c r="Q7" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="97" t="s">
+      <c r="R7" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="95"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="95" t="s">
+      <c r="S7" s="94"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="83"/>
-    </row>
-    <row r="8" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95">
+      <c r="W7" s="82"/>
+    </row>
+    <row r="8" spans="1:23" s="101" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94">
         <v>3</v>
       </c>
-      <c r="B8" s="96">
+      <c r="B8" s="95">
         <v>45006</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="95">
         <v>45007</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="50">
         <v>860157040200500</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97" t="s">
+      <c r="F8" s="96"/>
+      <c r="G8" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="98" t="s">
+      <c r="H8" s="102"/>
+      <c r="I8" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="99" t="s">
+      <c r="L8" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="100"/>
-      <c r="O8" s="99" t="s">
+      <c r="N8" s="99"/>
+      <c r="O8" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="100" t="s">
+      <c r="P8" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="Q8" s="101" t="s">
+      <c r="Q8" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="97" t="s">
+      <c r="R8" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="95"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="95" t="s">
+      <c r="S8" s="94"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="83"/>
-    </row>
-    <row r="9" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95">
+      <c r="W8" s="82"/>
+    </row>
+    <row r="9" spans="1:23" s="101" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="94">
         <v>4</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="95" t="s">
+      <c r="B9" s="67">
+        <v>45007</v>
+      </c>
+      <c r="C9" s="95">
+        <v>45008</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="50">
+        <v>860157040222207</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="99"/>
+      <c r="O9" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="94"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="83"/>
-    </row>
-    <row r="10" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95">
+      <c r="W9" s="82"/>
+    </row>
+    <row r="10" spans="1:23" s="101" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94">
         <v>5</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="95" t="s">
+      <c r="B10" s="67">
+        <v>45007</v>
+      </c>
+      <c r="C10" s="95">
+        <v>45008</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="50">
+        <v>868183035939649</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="106"/>
+      <c r="M10" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="99"/>
+      <c r="O10" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="94"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="83"/>
-    </row>
-    <row r="11" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95">
+      <c r="W10" s="82"/>
+    </row>
+    <row r="11" spans="1:23" s="101" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94">
         <v>6</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="95" t="s">
+      <c r="B11" s="67">
+        <v>45007</v>
+      </c>
+      <c r="C11" s="95">
+        <v>45008</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="50">
+        <v>868183034674122</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="99"/>
+      <c r="O11" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="94"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="83"/>
-    </row>
-    <row r="12" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95">
+      <c r="W11" s="82"/>
+    </row>
+    <row r="12" spans="1:23" s="101" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94">
         <v>7</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="157" t="s">
+      <c r="B12" s="67">
+        <v>45007</v>
+      </c>
+      <c r="C12" s="95">
+        <v>45008</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="50">
+        <v>867717030428289</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="99"/>
+      <c r="O12" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="V12" s="95" t="s">
+      <c r="R12" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="94"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="83"/>
-    </row>
-    <row r="13" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95">
+      <c r="W12" s="82"/>
+    </row>
+    <row r="13" spans="1:23" s="101" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="94">
         <v>8</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="95" t="s">
+      <c r="B13" s="67">
+        <v>45007</v>
+      </c>
+      <c r="C13" s="95">
+        <v>45008</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="50">
+        <v>868183037831885</v>
+      </c>
+      <c r="F13" s="104"/>
+      <c r="G13" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="99"/>
+      <c r="O13" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="94"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="153"/>
+      <c r="V13" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="83"/>
-    </row>
-    <row r="14" spans="1:23" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95">
+      <c r="W13" s="82"/>
+    </row>
+    <row r="14" spans="1:23" s="101" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="94">
         <v>9</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="158"/>
-      <c r="V14" s="95" t="s">
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="83"/>
+      <c r="W14" s="82"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95">
+      <c r="A15" s="94">
         <v>10</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="50"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="95" t="s">
+      <c r="F15" s="104"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="83"/>
+      <c r="W15" s="82"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95">
+      <c r="A16" s="94">
         <v>11</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="95" t="s">
+      <c r="F16" s="104"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="83"/>
+      <c r="W16" s="82"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95">
+      <c r="A17" s="94">
         <v>12</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="83"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="82"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95">
+      <c r="A18" s="94">
         <v>13</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="97"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="50"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="108"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="107"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="95">
+      <c r="A19" s="94">
         <v>14</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="97"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="50"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="108"/>
-      <c r="U19" s="93" t="s">
+      <c r="F19" s="104"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="114" t="s">
+      <c r="V19" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="115"/>
+      <c r="W19" s="114"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="95">
+      <c r="A20" s="94">
         <v>15</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="97"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="50"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="111" t="s">
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="V20" s="111">
+      <c r="V20" s="110">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
-      </c>
-      <c r="W20" s="108"/>
+        <v>7</v>
+      </c>
+      <c r="W20" s="107"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95">
+      <c r="A21" s="94">
         <v>16</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="97"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="50"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="111" t="s">
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="V21" s="111">
+      <c r="V21" s="110">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
         <v>1</v>
       </c>
-      <c r="W21" s="108"/>
+      <c r="W21" s="107"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95">
+      <c r="A22" s="94">
         <v>17</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="97"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="50"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="111" t="s">
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="V22" s="111">
+      <c r="V22" s="110">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
         <v>0</v>
       </c>
-      <c r="W22" s="108"/>
+      <c r="W22" s="107"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95">
+      <c r="A23" s="94">
         <v>18</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="97"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="50"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="108"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="107"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95">
+      <c r="A24" s="94">
         <v>19</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="97"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="96"/>
       <c r="E24" s="50"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="108"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="107"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95">
+      <c r="A25" s="94">
         <v>20</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="97"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="50"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="93" t="s">
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="V25" s="114" t="s">
+      <c r="V25" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="115"/>
+      <c r="W25" s="114"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95">
+      <c r="A26" s="94">
         <v>21</v>
       </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="97"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="96"/>
       <c r="E26" s="50"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="95" t="s">
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="111">
+      <c r="V26" s="110">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
         <v>0</v>
       </c>
-      <c r="W26" s="108"/>
+      <c r="W26" s="107"/>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="95">
+      <c r="A27" s="94">
         <v>22</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="97"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="96"/>
       <c r="E27" s="50"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="95" t="s">
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="111">
+      <c r="V27" s="110">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
         <v>0</v>
       </c>
-      <c r="W27" s="108"/>
+      <c r="W27" s="107"/>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="95">
+      <c r="A28" s="94">
         <v>23</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="97"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="50"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="108"/>
-      <c r="U28" s="95" t="s">
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="V28" s="111">
+      <c r="V28" s="110">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
         <v>0</v>
       </c>
-      <c r="W28" s="108"/>
+      <c r="W28" s="107"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95">
+      <c r="A29" s="94">
         <v>24</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="97"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="95" t="s">
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="V29" s="111">
+      <c r="V29" s="110">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
         <v>0</v>
       </c>
-      <c r="W29" s="108"/>
+      <c r="W29" s="107"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="95">
+      <c r="A30" s="94">
         <v>25</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="95" t="s">
+      <c r="B30" s="115"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="V30" s="111">
+      <c r="V30" s="110">
         <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
         <v>0</v>
       </c>
-      <c r="W30" s="108"/>
+      <c r="W30" s="107"/>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95">
+      <c r="A31" s="94">
         <v>26</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="108"/>
-      <c r="U31" s="95" t="s">
+      <c r="B31" s="115"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="V31" s="111">
+      <c r="V31" s="110">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
         <v>1</v>
       </c>
-      <c r="W31" s="108"/>
+      <c r="W31" s="107"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="95">
+      <c r="A32" s="94">
         <v>27</v>
       </c>
-      <c r="B32" s="116"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="95" t="s">
+      <c r="B32" s="115"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="V32" s="111">
+      <c r="V32" s="110">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
         <v>1</v>
       </c>
-      <c r="W32" s="108"/>
+      <c r="W32" s="107"/>
     </row>
     <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95">
+      <c r="A33" s="94">
         <v>28</v>
       </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="108"/>
-      <c r="U33" s="95" t="s">
+      <c r="B33" s="115"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="V33" s="111">
+      <c r="V33" s="110">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
         <v>0</v>
       </c>
-      <c r="W33" s="108"/>
+      <c r="W33" s="107"/>
     </row>
     <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95">
+      <c r="A34" s="94">
         <v>29</v>
       </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="108"/>
-      <c r="U34" s="95" t="s">
+      <c r="B34" s="115"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="V34" s="111">
+      <c r="V34" s="110">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
         <v>0</v>
       </c>
-      <c r="W34" s="108"/>
+      <c r="W34" s="107"/>
     </row>
     <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95">
+      <c r="A35" s="94">
         <v>30</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="95" t="s">
+      <c r="B35" s="115"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="V35" s="111">
+      <c r="V35" s="110">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
-      </c>
-      <c r="W35" s="108"/>
+        <v>6</v>
+      </c>
+      <c r="W35" s="107"/>
     </row>
     <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="95">
+      <c r="A36" s="94">
         <v>31</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="108"/>
-      <c r="U36" s="95" t="s">
+      <c r="B36" s="115"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="V36" s="111">
+      <c r="V36" s="110">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
         <v>0</v>
       </c>
-      <c r="W36" s="108"/>
+      <c r="W36" s="107"/>
     </row>
     <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="95">
+      <c r="A37" s="94">
         <v>32</v>
       </c>
-      <c r="B37" s="116"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="108"/>
-      <c r="U37" s="118" t="s">
+      <c r="B37" s="115"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="111">
+      <c r="V37" s="110">
         <f>SUM(V26:V36)</f>
+        <v>8</v>
+      </c>
+      <c r="W37" s="107"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="94">
+        <v>33</v>
+      </c>
+      <c r="B38" s="115"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="107"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="107"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="94">
+        <v>34</v>
+      </c>
+      <c r="B39" s="115"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="107"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="94">
+        <v>35</v>
+      </c>
+      <c r="B40" s="115"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="110"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="110">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="107"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="94">
+        <v>36</v>
+      </c>
+      <c r="B41" s="115"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="110">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="107"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="94">
+        <v>37</v>
+      </c>
+      <c r="B42" s="115"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="110"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="107"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="94">
+        <v>38</v>
+      </c>
+      <c r="B43" s="115"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="110"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="107"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="94">
+        <v>39</v>
+      </c>
+      <c r="B44" s="115"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="110"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="W37" s="108"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95">
-        <v>33</v>
-      </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="108"/>
-      <c r="U38" s="108"/>
-      <c r="V38" s="112"/>
-      <c r="W38" s="108"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95">
-        <v>34</v>
-      </c>
-      <c r="B39" s="116"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="112"/>
-      <c r="W39" s="108"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="95">
-        <v>35</v>
-      </c>
-      <c r="B40" s="116"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="118" t="s">
+      <c r="V44" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="94">
         <v>40</v>
       </c>
-      <c r="V40" s="111">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="108"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="95">
-        <v>36</v>
-      </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="118" t="s">
+      <c r="B45" s="115"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="107"/>
+      <c r="U45" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="110">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="110">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="110">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="94">
         <v>41</v>
       </c>
-      <c r="V41" s="111">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="108"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="95">
-        <v>37</v>
-      </c>
-      <c r="B42" s="116"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
-      <c r="O42" s="100"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="108"/>
-      <c r="U42" s="108"/>
-      <c r="V42" s="112"/>
-      <c r="W42" s="108"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="95">
-        <v>38</v>
-      </c>
-      <c r="B43" s="116"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
-      <c r="O43" s="100"/>
-      <c r="P43" s="100"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="108"/>
-      <c r="U43" s="108"/>
-      <c r="V43" s="112"/>
-      <c r="W43" s="108"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="95">
-        <v>39</v>
-      </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="111"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="111" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95">
-        <v>40</v>
-      </c>
-      <c r="B45" s="116"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="100"/>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="111"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="108"/>
-      <c r="U45" s="111" t="s">
+      <c r="B46" s="115"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="107"/>
+      <c r="U46" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="110">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="110">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="110">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="94">
+        <v>42</v>
+      </c>
+      <c r="B47" s="115"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="107"/>
+      <c r="U47" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="110">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="110">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="110">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="94">
+        <v>43</v>
+      </c>
+      <c r="B48" s="115"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="110"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="118"/>
+      <c r="U48" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="110">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="110">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="110">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="94">
         <v>44</v>
       </c>
-      <c r="V45" s="111">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="111">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="111">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="95">
-        <v>41</v>
-      </c>
-      <c r="B46" s="116"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="111">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="111">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="111">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="95">
-        <v>42</v>
-      </c>
-      <c r="B47" s="116"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="100"/>
-      <c r="O47" s="100"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="108"/>
-      <c r="U47" s="111" t="s">
+      <c r="B49" s="115"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="110"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="118"/>
+      <c r="U49" s="119"/>
+      <c r="V49" s="119"/>
+      <c r="W49" s="119"/>
+      <c r="X49" s="120"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="121">
         <v>45</v>
       </c>
-      <c r="V47" s="111">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="111">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="111">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95">
-        <v>43</v>
-      </c>
-      <c r="B48" s="116"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="100"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="111"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="119"/>
-      <c r="U48" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="111">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="111">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="111">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95">
-        <v>44</v>
-      </c>
-      <c r="B49" s="116"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100"/>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="95"/>
-      <c r="T49" s="119"/>
-      <c r="U49" s="120"/>
-      <c r="V49" s="120"/>
-      <c r="W49" s="120"/>
-      <c r="X49" s="121"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="122">
-        <v>45</v>
-      </c>
-      <c r="B50" s="123"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="127"/>
-      <c r="N50" s="127"/>
-      <c r="O50" s="127"/>
-      <c r="P50" s="127"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="125"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="119"/>
-      <c r="U50" s="120"/>
-      <c r="V50" s="120"/>
-      <c r="W50" s="120"/>
-      <c r="X50" s="121"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="126"/>
+      <c r="M50" s="126"/>
+      <c r="N50" s="126"/>
+      <c r="O50" s="126"/>
+      <c r="P50" s="126"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="124"/>
+      <c r="S50" s="121"/>
+      <c r="T50" s="118"/>
+      <c r="U50" s="119"/>
+      <c r="V50" s="119"/>
+      <c r="W50" s="119"/>
+      <c r="X50" s="120"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="95">
+      <c r="A51" s="94">
         <v>46</v>
       </c>
-      <c r="B51" s="116"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="98"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111"/>
-      <c r="T51" s="119"/>
-      <c r="U51" s="120"/>
-      <c r="V51" s="120"/>
-      <c r="W51" s="120"/>
-      <c r="X51" s="121"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
+      <c r="P51" s="99"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="110"/>
+      <c r="S51" s="110"/>
+      <c r="T51" s="118"/>
+      <c r="U51" s="119"/>
+      <c r="V51" s="119"/>
+      <c r="W51" s="119"/>
+      <c r="X51" s="120"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="95">
+      <c r="A52" s="94">
         <v>47</v>
       </c>
-      <c r="B52" s="129"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="121"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="131"/>
-      <c r="M52" s="121"/>
-      <c r="N52" s="121"/>
-      <c r="O52" s="121"/>
-      <c r="P52" s="121"/>
-      <c r="Q52" s="121"/>
-      <c r="R52" s="121"/>
-      <c r="S52" s="121"/>
-      <c r="T52" s="119"/>
-      <c r="U52" s="120"/>
-      <c r="V52" s="120"/>
-      <c r="W52" s="120"/>
-      <c r="X52" s="121"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="120"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="119"/>
+      <c r="V52" s="119"/>
+      <c r="W52" s="119"/>
+      <c r="X52" s="120"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="95">
+      <c r="A53" s="94">
         <v>48</v>
       </c>
-      <c r="B53" s="129"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="121"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
-      <c r="P53" s="121"/>
-      <c r="Q53" s="121"/>
-      <c r="R53" s="121"/>
-      <c r="S53" s="121"/>
-      <c r="T53" s="119"/>
-      <c r="U53" s="120"/>
-      <c r="V53" s="120"/>
-      <c r="W53" s="120"/>
-      <c r="X53" s="121"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="120"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="120"/>
+      <c r="T53" s="118"/>
+      <c r="U53" s="119"/>
+      <c r="V53" s="119"/>
+      <c r="W53" s="119"/>
+      <c r="X53" s="120"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="95">
+      <c r="A54" s="94">
         <v>49</v>
       </c>
-      <c r="B54" s="129"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="121"/>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="121"/>
-      <c r="O54" s="121"/>
-      <c r="P54" s="121"/>
-      <c r="Q54" s="121"/>
-      <c r="R54" s="121"/>
-      <c r="S54" s="121"/>
-      <c r="T54" s="119"/>
-      <c r="U54" s="120"/>
-      <c r="V54" s="120"/>
-      <c r="W54" s="120"/>
-      <c r="X54" s="121"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="120"/>
+      <c r="Q54" s="120"/>
+      <c r="R54" s="120"/>
+      <c r="S54" s="120"/>
+      <c r="T54" s="118"/>
+      <c r="U54" s="119"/>
+      <c r="V54" s="119"/>
+      <c r="W54" s="119"/>
+      <c r="X54" s="120"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95">
+      <c r="A55" s="94">
         <v>50</v>
       </c>
-      <c r="B55" s="129"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="130"/>
-      <c r="J55" s="121"/>
-      <c r="K55" s="131"/>
-      <c r="L55" s="131"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="121"/>
-      <c r="O55" s="121"/>
-      <c r="P55" s="121"/>
-      <c r="Q55" s="121"/>
-      <c r="R55" s="121"/>
-      <c r="S55" s="121"/>
-      <c r="T55" s="132"/>
-      <c r="U55" s="120"/>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="121"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="120"/>
+      <c r="T55" s="131"/>
+      <c r="U55" s="119"/>
+      <c r="V55" s="119"/>
+      <c r="W55" s="119"/>
+      <c r="X55" s="120"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U56" s="72"/>
@@ -6804,13 +8888,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6822,17 +8899,24 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -6865,43 +8949,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6946,23 +9030,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="137" t="s">
+      <c r="A4" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137" t="s">
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="137"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="143" t="s">
         <v>6</v>
       </c>
@@ -6975,7 +9059,7 @@
       <c r="O4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="148" t="s">
+      <c r="P4" s="141" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="143" t="s">
@@ -6984,20 +9068,20 @@
       <c r="R4" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="150" t="s">
+      <c r="S4" s="145" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="137" t="s">
+      <c r="U4" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="137" t="s">
+      <c r="V4" s="146" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="142"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -7032,13 +9116,13 @@
       <c r="M5" s="144"/>
       <c r="N5" s="144"/>
       <c r="O5" s="144"/>
-      <c r="P5" s="149"/>
+      <c r="P5" s="142"/>
       <c r="Q5" s="144"/>
       <c r="R5" s="144"/>
-      <c r="S5" s="150"/>
+      <c r="S5" s="145"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7048,7 +9132,7 @@
       <c r="B6" s="67">
         <v>44994</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="135">
         <v>44998</v>
       </c>
       <c r="D6" s="64" t="s">
@@ -7074,7 +9158,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="145" t="s">
+      <c r="U6" s="138" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7089,7 +9173,7 @@
       <c r="B7" s="67">
         <v>44994</v>
       </c>
-      <c r="C7" s="136">
+      <c r="C7" s="135">
         <v>44998</v>
       </c>
       <c r="D7" s="64" t="s">
@@ -7115,7 +9199,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="146"/>
+      <c r="U7" s="139"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7172,7 +9256,7 @@
         <v>97</v>
       </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="146"/>
+      <c r="U8" s="139"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7201,7 +9285,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="146"/>
+      <c r="U9" s="139"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7230,7 +9314,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="146"/>
+      <c r="U10" s="139"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7259,7 +9343,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="146"/>
+      <c r="U11" s="139"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7288,7 +9372,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="145" t="s">
+      <c r="U12" s="138" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7319,7 +9403,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="146"/>
+      <c r="U13" s="139"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7348,7 +9432,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="146"/>
+      <c r="U14" s="139"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7377,7 +9461,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="146"/>
+      <c r="U15" s="139"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7406,7 +9490,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="147"/>
+      <c r="U16" s="140"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8634,13 +10718,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8652,13 +10729,20 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -8695,43 +10779,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8776,58 +10860,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="137" t="s">
+      <c r="A4" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137" t="s">
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="137" t="s">
+      <c r="K4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="137"/>
+      <c r="L4" s="146"/>
       <c r="M4" s="143" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="137" t="s">
+      <c r="O4" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="162" t="s">
+      <c r="P4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="137" t="s">
+      <c r="Q4" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="137" t="s">
+      <c r="R4" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="150" t="s">
+      <c r="S4" s="145" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="137" t="s">
+      <c r="U4" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="137" t="s">
+      <c r="V4" s="146" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="142"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8852,7 +10936,7 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="137"/>
+      <c r="J5" s="146"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
@@ -8861,14 +10945,14 @@
       </c>
       <c r="M5" s="144"/>
       <c r="N5" s="144"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="150"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="145"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8894,7 +10978,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="145" t="s">
+      <c r="U6" s="138" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8925,7 +11009,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="146"/>
+      <c r="U7" s="139"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8954,7 +11038,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="146"/>
+      <c r="U8" s="139"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8983,7 +11067,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="146"/>
+      <c r="U9" s="139"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9012,7 +11096,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="146"/>
+      <c r="U10" s="139"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9041,7 +11125,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="146"/>
+      <c r="U11" s="139"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9070,7 +11154,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="145" t="s">
+      <c r="U12" s="138" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9101,7 +11185,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="146"/>
+      <c r="U13" s="139"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9130,7 +11214,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="146"/>
+      <c r="U14" s="139"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9159,7 +11243,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="146"/>
+      <c r="U15" s="139"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9188,7 +11272,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="147"/>
+      <c r="U16" s="140"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10419,6 +12503,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10430,13 +12521,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="47" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="122">
   <si>
     <t>STT</t>
   </si>
@@ -398,6 +398,18 @@
   <si>
     <t>125.212.203.114,16060</t>
   </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180115</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
 </sst>
 </file>
 
@@ -1032,6 +1044,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,32 +1083,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1416,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1449,43 +1461,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="150"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1530,58 +1542,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="143" t="s">
+      <c r="K4" s="138"/>
+      <c r="L4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="143" t="s">
+      <c r="M4" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="143" t="s">
+      <c r="N4" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="143" t="s">
+      <c r="O4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="141" t="s">
+      <c r="P4" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="143" t="s">
+      <c r="Q4" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="143" t="s">
+      <c r="R4" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="145" t="s">
+      <c r="S4" s="151" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="146" t="s">
+      <c r="U4" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="146" t="s">
+      <c r="V4" s="138" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+      <c r="A5" s="143"/>
       <c r="B5" s="136" t="s">
         <v>1</v>
       </c>
@@ -1612,17 +1624,17 @@
       <c r="K5" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="151"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1672,7 +1684,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="138" t="s">
+      <c r="U6" s="146" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1729,7 +1741,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="139"/>
+      <c r="U7" s="147"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1758,7 +1770,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="139"/>
+      <c r="U8" s="147"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1787,7 +1799,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="139"/>
+      <c r="U9" s="147"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1816,7 +1828,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="139"/>
+      <c r="U10" s="147"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1845,7 +1857,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="139"/>
+      <c r="U11" s="147"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1874,7 +1886,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="138" t="s">
+      <c r="U12" s="146" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1905,7 +1917,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="139"/>
+      <c r="U13" s="147"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1934,7 +1946,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="139"/>
+      <c r="U14" s="147"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1963,7 +1975,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="139"/>
+      <c r="U15" s="147"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1992,7 +2004,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="140"/>
+      <c r="U16" s="148"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3281,43 +3293,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="150"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3362,58 +3374,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="143" t="s">
+      <c r="K4" s="138"/>
+      <c r="L4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="143" t="s">
+      <c r="M4" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="143" t="s">
+      <c r="N4" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="143" t="s">
+      <c r="O4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="141" t="s">
+      <c r="P4" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="143" t="s">
+      <c r="Q4" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="143" t="s">
+      <c r="R4" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="145" t="s">
+      <c r="S4" s="151" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="146" t="s">
+      <c r="U4" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="146" t="s">
+      <c r="V4" s="138" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+      <c r="A5" s="143"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3444,17 +3456,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="151"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3508,7 +3520,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="138" t="s">
+      <c r="U6" s="146" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3563,7 +3575,7 @@
       </c>
       <c r="S7" s="71"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="139"/>
+      <c r="U7" s="147"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3616,7 +3628,7 @@
       </c>
       <c r="S8" s="71"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="139"/>
+      <c r="U8" s="147"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3645,7 +3657,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="71"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="139"/>
+      <c r="U9" s="147"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3674,7 +3686,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="71"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="139"/>
+      <c r="U10" s="147"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3703,7 +3715,7 @@
       <c r="R11" s="64"/>
       <c r="S11" s="71"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="139"/>
+      <c r="U11" s="147"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3732,7 +3744,7 @@
       <c r="R12" s="64"/>
       <c r="S12" s="71"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="138" t="s">
+      <c r="U12" s="146" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3763,7 +3775,7 @@
       <c r="R13" s="64"/>
       <c r="S13" s="71"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="139"/>
+      <c r="U13" s="147"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3792,7 +3804,7 @@
       <c r="R14" s="64"/>
       <c r="S14" s="71"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="139"/>
+      <c r="U14" s="147"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3821,7 +3833,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="139"/>
+      <c r="U15" s="147"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3850,7 +3862,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="140"/>
+      <c r="U16" s="148"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5139,43 +5151,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="150"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -5220,58 +5232,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="143" t="s">
+      <c r="K4" s="138"/>
+      <c r="L4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="143" t="s">
+      <c r="M4" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="143" t="s">
+      <c r="N4" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="143" t="s">
+      <c r="O4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="141" t="s">
+      <c r="P4" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="143" t="s">
+      <c r="Q4" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="143" t="s">
+      <c r="R4" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="145" t="s">
+      <c r="S4" s="151" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="146" t="s">
+      <c r="U4" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="146" t="s">
+      <c r="V4" s="138" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+      <c r="A5" s="143"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -5302,17 +5314,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="151"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5366,7 +5378,7 @@
       </c>
       <c r="S6" s="71"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="138" t="s">
+      <c r="U6" s="146" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5397,7 +5409,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="139"/>
+      <c r="U7" s="147"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5426,7 +5438,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="139"/>
+      <c r="U8" s="147"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5455,7 +5467,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="139"/>
+      <c r="U9" s="147"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5484,7 +5496,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="139"/>
+      <c r="U10" s="147"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5513,7 +5525,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="139"/>
+      <c r="U11" s="147"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5542,7 +5554,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="138" t="s">
+      <c r="U12" s="146" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5573,7 +5585,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="139"/>
+      <c r="U13" s="147"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5602,7 +5614,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="139"/>
+      <c r="U14" s="147"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5631,7 +5643,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="139"/>
+      <c r="U15" s="147"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5660,7 +5672,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="140"/>
+      <c r="U16" s="148"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6982,10 +6994,10 @@
       <c r="B2" s="161"/>
       <c r="C2" s="161"/>
       <c r="D2" s="161"/>
-      <c r="E2" s="150" t="s">
+      <c r="E2" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="150"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="85"/>
       <c r="H2" s="85"/>
       <c r="I2" s="86"/>
@@ -8916,8 +8928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8949,43 +8961,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="150"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -9030,58 +9042,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="143" t="s">
+      <c r="K4" s="138"/>
+      <c r="L4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="143" t="s">
+      <c r="M4" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="143" t="s">
+      <c r="N4" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="143" t="s">
+      <c r="O4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="141" t="s">
+      <c r="P4" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="143" t="s">
+      <c r="Q4" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="143" t="s">
+      <c r="R4" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="145" t="s">
+      <c r="S4" s="151" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="146" t="s">
+      <c r="U4" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="146" t="s">
+      <c r="V4" s="138" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+      <c r="A5" s="143"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -9112,17 +9124,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="151"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9149,16 +9161,30 @@
       <c r="I6" s="54"/>
       <c r="J6" s="39"/>
       <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
+      <c r="L6" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>94</v>
+      </c>
       <c r="N6" s="69"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="71"/>
+      <c r="O6" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="T6" s="66"/>
-      <c r="U6" s="138" t="s">
+      <c r="U6" s="146" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -9190,16 +9216,30 @@
       <c r="I7" s="54"/>
       <c r="J7" s="39"/>
       <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="L7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>94</v>
+      </c>
       <c r="N7" s="69"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
+      <c r="O7" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="139"/>
+      <c r="U7" s="147"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -9256,7 +9296,7 @@
         <v>97</v>
       </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="139"/>
+      <c r="U8" s="147"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -9266,26 +9306,56 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="67">
+        <v>45014</v>
+      </c>
+      <c r="C9" s="67">
+        <v>45014</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868345035600709</v>
+      </c>
       <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
+      <c r="I9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="69"/>
+      <c r="O9" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="T9" s="66"/>
-      <c r="U9" s="139"/>
+      <c r="U9" s="147"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9295,26 +9365,56 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="67">
+        <v>45014</v>
+      </c>
+      <c r="C10" s="67">
+        <v>45014</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868345031031446</v>
+      </c>
       <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
+      <c r="I10" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="69"/>
+      <c r="O10" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="T10" s="66"/>
-      <c r="U10" s="139"/>
+      <c r="U10" s="147"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9343,7 +9443,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="139"/>
+      <c r="U11" s="147"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9372,7 +9472,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="138" t="s">
+      <c r="U12" s="146" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9403,7 +9503,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="139"/>
+      <c r="U13" s="147"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9432,7 +9532,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="139"/>
+      <c r="U14" s="147"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9461,7 +9561,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="139"/>
+      <c r="U15" s="147"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9490,7 +9590,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="140"/>
+      <c r="U16" s="148"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9673,7 +9773,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9950,7 +10050,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -10078,7 +10178,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -10142,7 +10242,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10779,43 +10879,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="150"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10860,58 +10960,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="146" t="s">
+      <c r="K4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="146"/>
-      <c r="M4" s="143" t="s">
+      <c r="L4" s="138"/>
+      <c r="M4" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="143" t="s">
+      <c r="N4" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="146" t="s">
+      <c r="O4" s="138" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="146" t="s">
+      <c r="Q4" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="146" t="s">
+      <c r="R4" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="145" t="s">
+      <c r="S4" s="151" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="146" t="s">
+      <c r="U4" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="146" t="s">
+      <c r="V4" s="138" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+      <c r="A5" s="143"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10936,23 +11036,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="146"/>
+      <c r="J5" s="138"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="146"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="138"/>
       <c r="P5" s="163"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="145"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="151"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10978,7 +11078,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="138" t="s">
+      <c r="U6" s="146" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11009,7 +11109,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="139"/>
+      <c r="U7" s="147"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11038,7 +11138,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="139"/>
+      <c r="U8" s="147"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11067,7 +11167,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="139"/>
+      <c r="U9" s="147"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11096,7 +11196,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="139"/>
+      <c r="U10" s="147"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11125,7 +11225,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="139"/>
+      <c r="U11" s="147"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11154,7 +11254,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="138" t="s">
+      <c r="U12" s="146" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11185,7 +11285,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="139"/>
+      <c r="U13" s="147"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11214,7 +11314,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="139"/>
+      <c r="U14" s="147"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11243,7 +11343,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="139"/>
+      <c r="U15" s="147"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11272,7 +11372,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="140"/>
+      <c r="U16" s="148"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
